--- a/data/5_results/unknow/result_unknow_2.xlsx
+++ b/data/5_results/unknow/result_unknow_2.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,074</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,069</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,040</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,019</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,025</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>27</v>
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,019</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,024</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2183,22 +2183,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4360,22 +4360,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,005</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,004</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,011</t>
+          <t>0,000</t>
         </is>
       </c>
     </row>
